--- a/medicine/Enfance/Florence_Aubry/Florence_Aubry.xlsx
+++ b/medicine/Enfance/Florence_Aubry/Florence_Aubry.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Florence Aubry est une écrivaine française, née à Besançon en 1968. Elle est membre de la Charte des auteurs et des illustrateurs jeunesse[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Florence Aubry est une écrivaine française, née à Besançon en 1968. Elle est membre de la Charte des auteurs et des illustrateurs jeunesse.
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Née à Besançon le 3 décembre 1968[2], Florence Aubry y a fait toutes ses études. Elle commence par suivre parallèlement une licence de lettres modernes et une licence de sciences du langage puis se dirige vers une matière qu’elle estime plus scientifique et intègre une licence de géographie, jusqu’au DEA. Florence Aubry passe ensuite le Capes de documentation et sa première affectation a été un collège de la Somme où elle restera cinq ans avant de rejoindre le Languedoc-Roussillon. Elle est professeure documentaliste en collège et habite actuellement un petit village à quelques kilomètres de Narbonne[3].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Née à Besançon le 3 décembre 1968, Florence Aubry y a fait toutes ses études. Elle commence par suivre parallèlement une licence de lettres modernes et une licence de sciences du langage puis se dirige vers une matière qu’elle estime plus scientifique et intègre une licence de géographie, jusqu’au DEA. Florence Aubry passe ensuite le Capes de documentation et sa première affectation a été un collège de la Somme où elle restera cinq ans avant de rejoindre le Languedoc-Roussillon. Elle est professeure documentaliste en collège et habite actuellement un petit village à quelques kilomètres de Narbonne.
 </t>
         </is>
       </c>
@@ -542,12 +556,14 @@
           <t>Œuvre</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Zelda et les Évaporés, 2019, éditions du Rouergue ;
 La Fille du monstre, 2019, Gallimard Jeunesse ;
 Titan noir, 2018, éditions du Rouergue ;
-Point décisif, 2015, éditions Mijade[4] ;
+Point décisif, 2015, éditions Mijade ;
 Le Royaume des cercueils suspendus, 2014, éditions du Rouergue ;
 Nola, 2014, éditions Mijade ;
 Le Garçon talisman, 2012, éditions du Rouergue ;
@@ -564,10 +580,47 @@
 De toits à moi, 2003, Magnard jeunesse ;
 L'Étrange Cicatrice, 2003, Magnard jeunesse ;
 Les Points sur le i, 2002, Magnard jeunesse ;
-La Disparue d'Aqualud, 2001, Magnard jeunesse[5].
-Prix
-Titan noir
-En juin 2020, Titan noir est lauréat du Prix Maya 2020, récompense littéraire animaliste décernée aux ouvrages faisant avancer la cause animale, dans la catégorie roman[6].
+La Disparue d'Aqualud, 2001, Magnard jeunesse.</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Florence_Aubry</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Florence_Aubry</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Œuvre</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Prix</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>Titan noir</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>En juin 2020, Titan noir est lauréat du Prix Maya 2020, récompense littéraire animaliste décernée aux ouvrages faisant avancer la cause animale, dans la catégorie roman.
 Il a reçu aussi les récompenses suivantes :[réf. nécessaire]
 Prix des Embouquineurs, 2020 ;
 Prix Club Lecture Ado Books Awards (Aulnay sous bois), 2019 ;
